--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023/Data Sheet_Atra_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023/Data Sheet_Atra_GC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{0D6DC71D-8738-4BAC-A91A-7810A9452D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EDBDF7-284C-4D2D-828A-CAE0EE1BD242}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{0D6DC71D-8738-4BAC-A91A-7810A9452D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{637328E0-48DD-4CF1-A5B4-213EE12CB1E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,12 +3429,8 @@
       <c r="I83" s="3">
         <v>2</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
